--- a/Data/Transitions/19591974Translation.xlsx
+++ b/Data/Transitions/19591974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="667">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1703,6 +1703,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.4343183698022408, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910336, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
@@ -4473,7 +4476,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>563</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4506,7 +4509,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4517,7 +4520,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4528,7 +4531,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4550,7 +4553,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4594,7 +4597,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4660,7 +4663,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4704,7 +4707,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4715,7 +4718,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4737,7 +4740,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4814,7 +4817,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4858,7 +4861,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4880,7 +4883,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4924,7 +4927,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4935,7 +4938,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4946,7 +4949,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4957,7 +4960,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5100,7 +5103,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5111,7 +5114,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5144,7 +5147,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5155,7 +5158,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5166,7 +5169,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5243,7 +5246,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5254,7 +5257,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5287,7 +5290,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5309,7 +5312,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5320,7 +5323,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5331,7 +5334,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5364,7 +5367,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5397,7 +5400,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5408,7 +5411,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5441,7 +5444,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5463,7 +5466,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5474,7 +5477,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5496,7 +5499,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5518,7 +5521,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5540,7 +5543,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5595,7 +5598,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5716,7 +5719,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5727,7 +5730,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5760,7 +5763,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5782,7 +5785,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5848,7 +5851,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5870,7 +5873,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5881,7 +5884,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5903,7 +5906,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5958,7 +5961,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5969,7 +5972,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6035,7 +6038,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6046,7 +6049,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6057,7 +6060,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6068,7 +6071,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6079,7 +6082,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6112,7 +6115,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6134,7 +6137,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6156,7 +6159,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6167,7 +6170,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6178,7 +6181,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6200,7 +6203,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6211,7 +6214,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6222,7 +6225,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6255,7 +6258,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6288,7 +6291,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6332,7 +6335,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6343,7 +6346,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6376,7 +6379,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6398,7 +6401,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6431,7 +6434,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6475,7 +6478,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6706,7 +6709,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6750,7 +6753,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6761,7 +6764,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6794,7 +6797,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6805,7 +6808,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6816,7 +6819,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6827,7 +6830,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6838,7 +6841,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6860,7 +6863,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6904,7 +6907,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6926,7 +6929,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6948,7 +6951,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6970,7 +6973,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7025,7 +7028,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7080,7 +7083,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7091,7 +7094,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7102,7 +7105,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7157,7 +7160,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7168,7 +7171,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7179,7 +7182,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7190,7 +7193,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7201,7 +7204,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7212,7 +7215,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7234,7 +7237,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7333,7 +7336,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7399,7 +7402,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7432,7 +7435,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7465,7 +7468,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7487,7 +7490,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7509,7 +7512,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7531,7 +7534,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7542,7 +7545,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7564,7 +7567,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7575,7 +7578,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7674,7 +7677,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
